--- a/biology/Botanique/Square_de_Yorktown/Square_de_Yorktown.xlsx
+++ b/biology/Botanique/Square_de_Yorktown/Square_de_Yorktown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de Yorktown est un square du 16e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé à proximité du musée national de la Marine (palais de Chaillot), au croisement de l'avenue Paul-Doumer (au no 1) et de la rue Benjamin-Franklin.
 Grillagé, il est visible depuis la rue mais il n'est pas possible d'y entrer.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commémore la bataille de Yorktown de 1781, qui eut lieu durant la guerre d'indépendance des États-Unis.
 </t>
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé à l'emplacement de la demi-lune (place) à l'entrée de l'ancienne barrière Sainte-Marie du mur d'enceinte des Fermiers généraux. Cette barrière était ainsi dénommée en raison de sa proximité avec le couvent de la Visitation-Sainte-Marie de Chaillot, disparu en 1794.
 Le square accueille en son centre une statue de l'homme politique américain Benjamin Franklin, qui vécut dans le quartier, à l'hôtel de Valentinois (disparu de nos jours). Le monument est l'œuvre de John J. Boyle (en). À l'avant du piédestal, sur une plaque surmontée d'un aigle, il est inscrit : « Benjamin Franklin 1706-1790 – Ce génie qui affranchit l'Amérique et versa sur l'Europe des torrents de lumière ! Le sage que deux mondes réclament », une citation de Mirabeau de juin 1790. À l'arrière du piédestal, il est inscrit : « Offert à la ville de Paris par John H. Harjes – 1906 » ; il s'agit du père du banquier Henry Herman Harjes.
